--- a/DataRepo/data/tests/small_obob2/obob_maven_c160_serum.xlsx
+++ b/DataRepo/data/tests/small_obob2/obob_maven_c160_serum.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18E8AF9-2B80-6E41-96DF-045EE42F8B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25300" windowHeight="21060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -12,13 +18,177 @@
     <sheet name="Normalized" sheetId="3" r:id="rId3"/>
     <sheet name="PoolAfterDF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="53">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>serum-xz969</t>
+  </si>
+  <si>
+    <t>serum-xz970</t>
+  </si>
+  <si>
+    <t>serum-xz979</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C16:0</t>
+  </si>
+  <si>
+    <t>C16H32O2</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>C13-label-9</t>
+  </si>
+  <si>
+    <t>C13-label-11</t>
+  </si>
+  <si>
+    <t>C13-label-12</t>
+  </si>
+  <si>
+    <t>C13-label-13</t>
+  </si>
+  <si>
+    <t>C13-label-14</t>
+  </si>
+  <si>
+    <t>C13-label-15</t>
+  </si>
+  <si>
+    <t>C13-label-16</t>
+  </si>
+  <si>
+    <t>C18:1</t>
+  </si>
+  <si>
+    <t>C18H34O2</t>
+  </si>
+  <si>
+    <t>C13-label-18</t>
+  </si>
+  <si>
+    <t>C18:2</t>
+  </si>
+  <si>
+    <t>C18H32O2</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>C6H12O6</t>
+  </si>
+  <si>
+    <t>C13-label-6</t>
+  </si>
+  <si>
+    <t>lactate</t>
+  </si>
+  <si>
+    <t>C3H6O3</t>
+  </si>
+  <si>
+    <t>3-hydroxybutyrate</t>
+  </si>
+  <si>
+    <t>C4H8O3</t>
+  </si>
+  <si>
+    <t>glutamine</t>
+  </si>
+  <si>
+    <t>C5H10N2O3</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>citrate/isocitrate</t>
+  </si>
+  <si>
+    <t>C6H8O7</t>
+  </si>
+  <si>
+    <t>succinate</t>
+  </si>
+  <si>
+    <t>C4H6O4</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>C_Label</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +236,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -112,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -144,9 +322,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,6 +374,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,101 +567,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>metaGroupId</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>groupId</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>goodPeakCount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>medMz</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>medRt</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>maxQuality</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>isotopeLabel</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>compound</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>compoundId</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>expectedRtDiff</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ppmDiff</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz969</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz970</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz979</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>0</v>
       </c>
@@ -458,42 +652,34 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="F2">
-        <v>2.314517</v>
+        <v>2.3145169999999999</v>
       </c>
       <c r="G2">
-        <v>0.8185162</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.81851620000000003</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>7.805483</v>
+        <v>7.8054829999999997</v>
       </c>
       <c r="M2">
-        <v>1.255459</v>
+        <v>1.2554590000000001</v>
       </c>
       <c r="N2">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O2">
         <v>805432300</v>
@@ -505,7 +691,7 @@
         <v>1292612000</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -516,42 +702,34 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>256.236</v>
+        <v>256.23599999999999</v>
       </c>
       <c r="F3">
-        <v>2.316407</v>
+        <v>2.3164069999999999</v>
       </c>
       <c r="G3">
-        <v>0.8271532</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.82715320000000003</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>7.803593</v>
+        <v>7.8035930000000002</v>
       </c>
       <c r="M3">
         <v>1.310093</v>
       </c>
       <c r="N3">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O3">
         <v>138051500</v>
@@ -563,7 +741,7 @@
         <v>231019800</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0</v>
       </c>
@@ -580,36 +758,28 @@
         <v>2.31263</v>
       </c>
       <c r="G4">
-        <v>0.8188428</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.81884279999999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4">
-        <v>7.80737</v>
+        <v>7.8073699999999997</v>
       </c>
       <c r="M4">
-        <v>0.4745392</v>
+        <v>0.47453919999999999</v>
       </c>
       <c r="N4">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O4">
         <v>10343600</v>
@@ -621,7 +791,7 @@
         <v>19908750</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -632,45 +802,37 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>258.2428</v>
+        <v>258.24279999999999</v>
       </c>
       <c r="F5">
-        <v>2.303187</v>
+        <v>2.3031869999999999</v>
       </c>
       <c r="G5">
-        <v>0.8545959</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.85459589999999996</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5">
-        <v>7.816813</v>
+        <v>7.8168129999999998</v>
       </c>
       <c r="M5">
-        <v>1.063565</v>
+        <v>1.0635650000000001</v>
       </c>
       <c r="N5">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O5">
-        <v>576782.8</v>
+        <v>576782.80000000005</v>
       </c>
       <c r="P5">
         <v>745905.8</v>
@@ -679,7 +841,7 @@
         <v>1208412</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0</v>
       </c>
@@ -690,33 +852,25 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>259.2458</v>
+        <v>259.24579999999997</v>
       </c>
       <c r="F6">
-        <v>2.303046</v>
+        <v>2.3030460000000001</v>
       </c>
       <c r="G6">
-        <v>0.6084198</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>C13-label-4</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.60841979999999996</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6">
         <v>7.816954</v>
@@ -725,7 +879,7 @@
         <v>2.35433</v>
       </c>
       <c r="N6">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -737,7 +891,7 @@
         <v>496514.1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0</v>
       </c>
@@ -748,42 +902,34 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>264.2625</v>
+        <v>264.26249999999999</v>
       </c>
       <c r="F7">
-        <v>2.3078</v>
+        <v>2.3077999999999999</v>
       </c>
       <c r="G7">
         <v>0.4295699</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>C13-label-9</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
       <c r="L7">
-        <v>7.8122</v>
+        <v>7.8121999999999998</v>
       </c>
       <c r="M7">
-        <v>2.656081</v>
+        <v>2.6560809999999999</v>
       </c>
       <c r="N7">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -795,7 +941,7 @@
         <v>103849.4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0</v>
       </c>
@@ -806,42 +952,34 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>266.2685</v>
+        <v>266.26850000000002</v>
       </c>
       <c r="F8">
-        <v>2.3078</v>
+        <v>2.3077999999999999</v>
       </c>
       <c r="G8">
-        <v>0.4991664</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>C13-label-11</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.49916640000000001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
       </c>
       <c r="L8">
-        <v>7.8122</v>
+        <v>7.8121999999999998</v>
       </c>
       <c r="M8">
-        <v>5.042904</v>
+        <v>5.0429040000000001</v>
       </c>
       <c r="N8">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -853,7 +991,7 @@
         <v>243142.2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0</v>
       </c>
@@ -864,42 +1002,34 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>267.2732</v>
+        <v>267.27319999999997</v>
       </c>
       <c r="F9">
-        <v>2.317567</v>
+        <v>2.3175669999999999</v>
       </c>
       <c r="G9">
-        <v>0.8550228</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>C13-label-12</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.85502279999999997</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
       </c>
       <c r="L9">
-        <v>7.802433</v>
+        <v>7.8024329999999997</v>
       </c>
       <c r="M9">
         <v>0.1141812</v>
       </c>
       <c r="N9">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O9">
         <v>106800.5</v>
@@ -911,7 +1041,7 @@
         <v>495461.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0</v>
       </c>
@@ -922,42 +1052,34 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>268.2767</v>
+        <v>268.27670000000001</v>
       </c>
       <c r="F10">
-        <v>2.30799</v>
+        <v>2.3079900000000002</v>
       </c>
       <c r="G10">
-        <v>0.8559901</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>C13-label-13</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.85599009999999998</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
       </c>
       <c r="L10">
-        <v>7.81201</v>
+        <v>7.8120099999999999</v>
       </c>
       <c r="M10">
-        <v>0.3412625</v>
+        <v>0.34126250000000002</v>
       </c>
       <c r="N10">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O10">
         <v>326256.8</v>
@@ -969,7 +1091,7 @@
         <v>749252.8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0</v>
       </c>
@@ -983,39 +1105,31 @@
         <v>269.2799</v>
       </c>
       <c r="F11">
-        <v>2.325853</v>
+        <v>2.3258529999999999</v>
       </c>
       <c r="G11">
-        <v>0.8071074</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>C13-label-14</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.80710740000000003</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
       </c>
       <c r="L11">
-        <v>7.794147</v>
+        <v>7.7941469999999997</v>
       </c>
       <c r="M11">
-        <v>0.2266606</v>
+        <v>0.22666059999999999</v>
       </c>
       <c r="N11">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O11">
         <v>1939976</v>
@@ -1027,7 +1141,7 @@
         <v>6054250</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -1038,42 +1152,34 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>270.283</v>
+        <v>270.28300000000002</v>
       </c>
       <c r="F12">
-        <v>2.312634</v>
+        <v>2.3126340000000001</v>
       </c>
       <c r="G12">
-        <v>0.8247123</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>C13-label-15</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.82471229999999995</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
       </c>
       <c r="L12">
         <v>7.807366</v>
       </c>
       <c r="M12">
-        <v>1.129096</v>
+        <v>1.1290960000000001</v>
       </c>
       <c r="N12">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O12">
         <v>14937920</v>
@@ -1085,7 +1191,7 @@
         <v>49312190</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1096,42 +1202,34 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>271.2864</v>
+        <v>271.28640000000001</v>
       </c>
       <c r="F13">
-        <v>2.316407</v>
+        <v>2.3164069999999999</v>
       </c>
       <c r="G13">
-        <v>0.809041</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>C13-label-16</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>C16H32O2</t>
-        </is>
+        <v>0.80904100000000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
       </c>
       <c r="L13">
-        <v>7.803593</v>
+        <v>7.8035930000000002</v>
       </c>
       <c r="M13">
-        <v>0.899936</v>
+        <v>0.89993599999999996</v>
       </c>
       <c r="N13">
-        <v>255.2326</v>
+        <v>255.23259999999999</v>
       </c>
       <c r="O13">
         <v>80304900</v>
@@ -1143,7 +1241,7 @@
         <v>253075200</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1157,36 +1255,28 @@
         <v>281.2482</v>
       </c>
       <c r="F14">
-        <v>2.253207</v>
+        <v>2.2532070000000002</v>
       </c>
       <c r="G14">
         <v>0.8179594</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>C18H34O2</t>
-        </is>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
       </c>
       <c r="L14">
-        <v>8.106792</v>
+        <v>8.1067920000000004</v>
       </c>
       <c r="M14">
-        <v>1.627612</v>
+        <v>1.6276120000000001</v>
       </c>
       <c r="N14">
         <v>281.2482</v>
@@ -1201,7 +1291,7 @@
         <v>1823848000</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1218,33 +1308,25 @@
         <v>2.258877</v>
       </c>
       <c r="G15">
-        <v>0.8186418</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>C18H34O2</t>
-        </is>
+        <v>0.81864179999999998</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
       </c>
       <c r="L15">
-        <v>8.101122999999999</v>
+        <v>8.1011229999999994</v>
       </c>
       <c r="M15">
-        <v>1.513705</v>
+        <v>1.5137050000000001</v>
       </c>
       <c r="N15">
         <v>281.2482</v>
@@ -1259,7 +1341,7 @@
         <v>362147000</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1270,39 +1352,31 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>283.2556</v>
+        <v>283.25560000000002</v>
       </c>
       <c r="F16">
-        <v>2.253207</v>
+        <v>2.2532070000000002</v>
       </c>
       <c r="G16">
-        <v>0.8138912</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>C18H34O2</t>
-        </is>
+        <v>0.81389120000000004</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
       </c>
       <c r="L16">
-        <v>8.106792</v>
+        <v>8.1067920000000004</v>
       </c>
       <c r="M16">
-        <v>0.7541713</v>
+        <v>0.75417129999999999</v>
       </c>
       <c r="N16">
         <v>281.2482</v>
@@ -1317,7 +1391,7 @@
         <v>30568510</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -1328,39 +1402,31 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>284.259</v>
+        <v>284.25900000000001</v>
       </c>
       <c r="F17">
-        <v>2.251317</v>
+        <v>2.2513169999999998</v>
       </c>
       <c r="G17">
-        <v>0.8575265</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>C18H34O2</t>
-        </is>
+        <v>0.85752649999999997</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
       </c>
       <c r="L17">
-        <v>8.108682999999999</v>
+        <v>8.1086829999999992</v>
       </c>
       <c r="M17">
-        <v>1.288302</v>
+        <v>1.2883020000000001</v>
       </c>
       <c r="N17">
         <v>281.2482</v>
@@ -1375,7 +1441,7 @@
         <v>1629383</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1386,39 +1452,31 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>285.2613</v>
+        <v>285.26130000000001</v>
       </c>
       <c r="F18">
-        <v>2.2228</v>
+        <v>2.2227999999999999</v>
       </c>
       <c r="G18">
-        <v>0.5054017</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>C13-label-4</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>C18H34O2</t>
-        </is>
+        <v>0.50540169999999995</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
       </c>
       <c r="L18">
-        <v>8.137199000000001</v>
+        <v>8.1371990000000007</v>
       </c>
       <c r="M18">
-        <v>2.46056</v>
+        <v>2.4605600000000001</v>
       </c>
       <c r="N18">
         <v>281.2482</v>
@@ -1433,7 +1491,7 @@
         <v>118388</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1444,39 +1502,31 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>296.2984</v>
+        <v>296.29840000000002</v>
       </c>
       <c r="F19">
-        <v>2.249745</v>
+        <v>2.2497449999999999</v>
       </c>
       <c r="G19">
-        <v>0.8538863</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>C13-label-15</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>C18H34O2</t>
-        </is>
+        <v>0.85388629999999999</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
       </c>
       <c r="L19">
-        <v>8.110255</v>
+        <v>8.1102550000000004</v>
       </c>
       <c r="M19">
-        <v>1.75093</v>
+        <v>1.7509300000000001</v>
       </c>
       <c r="N19">
         <v>281.2482</v>
@@ -1491,7 +1541,7 @@
         <v>657970</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0</v>
       </c>
@@ -1510,31 +1560,23 @@
       <c r="G20">
         <v>0.7932131</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>C13-label-16</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>C18H34O2</t>
-        </is>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
       </c>
       <c r="L20">
-        <v>8.112354</v>
+        <v>8.1123539999999998</v>
       </c>
       <c r="M20">
-        <v>0.6158898</v>
+        <v>0.61588980000000004</v>
       </c>
       <c r="N20">
         <v>281.2482</v>
@@ -1549,7 +1591,7 @@
         <v>2406102</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -1560,39 +1602,31 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>299.3086</v>
+        <v>299.30860000000001</v>
       </c>
       <c r="F21">
-        <v>2.2394</v>
+        <v>2.2393999999999998</v>
       </c>
       <c r="G21">
-        <v>0.8426763</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>C13-label-18</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>C18H34O2</t>
-        </is>
+        <v>0.84267630000000004</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
       </c>
       <c r="L21">
-        <v>8.1206</v>
+        <v>8.1205999999999996</v>
       </c>
       <c r="M21">
-        <v>1.427442</v>
+        <v>1.4274420000000001</v>
       </c>
       <c r="N21">
         <v>281.2482</v>
@@ -1607,7 +1641,7 @@
         <v>508156.6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
@@ -1618,42 +1652,34 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>279.2327</v>
+        <v>279.23270000000002</v>
       </c>
       <c r="F22">
-        <v>2.288077</v>
+        <v>2.2880769999999999</v>
       </c>
       <c r="G22">
-        <v>0.8269793</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>C18H32O2</t>
-        </is>
+        <v>0.82697929999999997</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
       </c>
       <c r="L22">
-        <v>7.441923</v>
+        <v>7.4419230000000001</v>
       </c>
       <c r="M22">
-        <v>0.8743259</v>
+        <v>0.87432589999999999</v>
       </c>
       <c r="N22">
-        <v>279.2327</v>
+        <v>279.23270000000002</v>
       </c>
       <c r="O22">
         <v>1293964000</v>
@@ -1665,7 +1691,7 @@
         <v>1309577000</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -1676,42 +1702,34 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>280.236</v>
+        <v>280.23599999999999</v>
       </c>
       <c r="F23">
-        <v>2.279657</v>
+        <v>2.2796569999999998</v>
       </c>
       <c r="G23">
-        <v>0.8268855000000001</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>C18H32O2</t>
-        </is>
+        <v>0.82688550000000005</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
       </c>
       <c r="L23">
-        <v>7.450343</v>
+        <v>7.4503430000000002</v>
       </c>
       <c r="M23">
         <v>1.088994</v>
       </c>
       <c r="N23">
-        <v>279.2327</v>
+        <v>279.23270000000002</v>
       </c>
       <c r="O23">
         <v>255039800</v>
@@ -1723,7 +1741,7 @@
         <v>255076900</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -1734,42 +1752,34 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>281.2409</v>
+        <v>281.24090000000001</v>
       </c>
       <c r="F24">
-        <v>2.3183</v>
+        <v>2.3182999999999998</v>
       </c>
       <c r="G24">
-        <v>0.7887658</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>C18H32O2</t>
-        </is>
+        <v>0.78876579999999996</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
       </c>
       <c r="L24">
-        <v>7.411699</v>
+        <v>7.4116989999999996</v>
       </c>
       <c r="M24">
-        <v>4.448948</v>
+        <v>4.4489479999999997</v>
       </c>
       <c r="N24">
-        <v>279.2327</v>
+        <v>279.23270000000002</v>
       </c>
       <c r="O24">
         <v>16700640</v>
@@ -1781,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -1792,42 +1802,34 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>179.0559</v>
+        <v>179.05590000000001</v>
       </c>
       <c r="F25">
         <v>11.34553</v>
       </c>
       <c r="G25">
-        <v>0.8314828</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.83148279999999997</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
       </c>
       <c r="L25">
-        <v>0.4044666</v>
+        <v>0.40446660000000001</v>
       </c>
       <c r="M25">
-        <v>1.193051</v>
+        <v>1.1930510000000001</v>
       </c>
       <c r="N25">
-        <v>179.0559</v>
+        <v>179.05590000000001</v>
       </c>
       <c r="O25">
         <v>26544070</v>
@@ -1839,7 +1841,7 @@
         <v>74963460</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -1850,42 +1852,34 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>180.0593</v>
+        <v>180.05930000000001</v>
       </c>
       <c r="F26">
-        <v>11.34053</v>
+        <v>11.340529999999999</v>
       </c>
       <c r="G26">
-        <v>0.8420493999999999</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.84204939999999995</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
       </c>
       <c r="L26">
-        <v>0.4094734</v>
+        <v>0.40947339999999999</v>
       </c>
       <c r="M26">
-        <v>1.10166</v>
+        <v>1.1016600000000001</v>
       </c>
       <c r="N26">
-        <v>179.0559</v>
+        <v>179.05590000000001</v>
       </c>
       <c r="O26">
         <v>2473365</v>
@@ -1897,7 +1891,7 @@
         <v>6471656</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -1911,39 +1905,31 @@
         <v>181.0624</v>
       </c>
       <c r="F27">
-        <v>11.33139</v>
+        <v>11.331390000000001</v>
       </c>
       <c r="G27">
-        <v>0.8528307000000001</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.85283070000000005</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
       </c>
       <c r="L27">
         <v>0.4186125</v>
       </c>
       <c r="M27">
-        <v>2.106836</v>
+        <v>2.1068359999999999</v>
       </c>
       <c r="N27">
-        <v>179.0559</v>
+        <v>179.05590000000001</v>
       </c>
       <c r="O27">
         <v>224799.3</v>
@@ -1955,7 +1941,7 @@
         <v>364965.5</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -1969,42 +1955,34 @@
         <v>182.0659</v>
       </c>
       <c r="F28">
-        <v>11.32731</v>
+        <v>11.327310000000001</v>
       </c>
       <c r="G28">
-        <v>0.8438578</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.84385779999999999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
       </c>
       <c r="L28">
-        <v>0.4226933</v>
+        <v>0.42269329999999999</v>
       </c>
       <c r="M28">
         <v>1.592371</v>
       </c>
       <c r="N28">
-        <v>179.0559</v>
+        <v>179.05590000000001</v>
       </c>
       <c r="O28">
-        <v>8552.954</v>
+        <v>8552.9539999999997</v>
       </c>
       <c r="P28">
         <v>12735.9</v>
@@ -2013,7 +1991,7 @@
         <v>16642.36</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0</v>
       </c>
@@ -2027,42 +2005,34 @@
         <v>185.0754</v>
       </c>
       <c r="F29">
-        <v>11.18438</v>
+        <v>11.184380000000001</v>
       </c>
       <c r="G29">
-        <v>0.05357842</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>C13-label-6</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>5.3578420000000002E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>37</v>
       </c>
       <c r="L29">
-        <v>0.5656166</v>
+        <v>0.56561660000000002</v>
       </c>
       <c r="M29">
-        <v>4.534528</v>
+        <v>4.5345279999999999</v>
       </c>
       <c r="N29">
-        <v>179.0559</v>
+        <v>179.05590000000001</v>
       </c>
       <c r="O29">
-        <v>2441.602</v>
+        <v>2441.6019999999999</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2071,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -2088,27 +2058,19 @@
         <v>7.617667</v>
       </c>
       <c r="G30">
-        <v>0.8351179</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>C3H6O3</t>
-        </is>
+        <v>0.83511789999999997</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" t="s">
+        <v>40</v>
       </c>
       <c r="L30">
         <v>0.182333</v>
@@ -2129,7 +2091,7 @@
         <v>64130390</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0</v>
       </c>
@@ -2140,39 +2102,31 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>90.02760000000001</v>
+        <v>90.027600000000007</v>
       </c>
       <c r="F31">
-        <v>7.613037</v>
+        <v>7.6130370000000003</v>
       </c>
       <c r="G31">
-        <v>0.7492831</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>C3H6O3</t>
-        </is>
+        <v>0.74928309999999998</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
       </c>
       <c r="L31">
-        <v>0.1869631</v>
+        <v>0.18696309999999999</v>
       </c>
       <c r="M31">
-        <v>1.864388</v>
+        <v>1.8643879999999999</v>
       </c>
       <c r="N31">
         <v>89.02431</v>
@@ -2187,7 +2141,7 @@
         <v>2825691</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0</v>
       </c>
@@ -2198,36 +2152,28 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>91.03097</v>
+        <v>91.030969999999996</v>
       </c>
       <c r="F32">
-        <v>7.616991</v>
+        <v>7.6169909999999996</v>
       </c>
       <c r="G32">
-        <v>0.7559561</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>C3H6O3</t>
-        </is>
+        <v>0.75595610000000002</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" t="s">
+        <v>40</v>
       </c>
       <c r="L32">
-        <v>0.1830096</v>
+        <v>0.18300959999999999</v>
       </c>
       <c r="M32">
         <v>1.760027</v>
@@ -2245,7 +2191,7 @@
         <v>102118.2</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -2256,39 +2202,31 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>92.03440000000001</v>
+        <v>92.034400000000005</v>
       </c>
       <c r="F33">
-        <v>7.572073</v>
+        <v>7.5720729999999996</v>
       </c>
       <c r="G33">
-        <v>0.08920160000000001</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>C3H6O3</t>
-        </is>
+        <v>8.9201600000000006E-2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" t="s">
+        <v>40</v>
       </c>
       <c r="L33">
-        <v>0.2279277</v>
+        <v>0.22792770000000001</v>
       </c>
       <c r="M33">
-        <v>0.9118684</v>
+        <v>0.91186840000000002</v>
       </c>
       <c r="N33">
         <v>89.02431</v>
@@ -2303,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -2317,36 +2255,28 @@
         <v>103.04</v>
       </c>
       <c r="F34">
-        <v>7.703958</v>
+        <v>7.7039580000000001</v>
       </c>
       <c r="G34">
         <v>0.830905</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>C4H8O3</t>
-        </is>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" t="s">
+        <v>42</v>
       </c>
       <c r="L34">
-        <v>0.02604246</v>
+        <v>2.604246E-2</v>
       </c>
       <c r="M34">
-        <v>1.110645</v>
+        <v>1.1106450000000001</v>
       </c>
       <c r="N34">
         <v>103.04</v>
@@ -2361,7 +2291,7 @@
         <v>19752790</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0</v>
       </c>
@@ -2375,36 +2305,28 @@
         <v>104.0433</v>
       </c>
       <c r="F35">
-        <v>7.708667</v>
+        <v>7.7086670000000002</v>
       </c>
       <c r="G35">
-        <v>0.8122135</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>C4H8O3</t>
-        </is>
+        <v>0.81221350000000003</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" t="s">
+        <v>42</v>
       </c>
       <c r="L35">
-        <v>0.02133322</v>
+        <v>2.133322E-2</v>
       </c>
       <c r="M35">
-        <v>0.9532763</v>
+        <v>0.95327629999999997</v>
       </c>
       <c r="N35">
         <v>103.04</v>
@@ -2419,7 +2341,7 @@
         <v>912924.1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -2433,33 +2355,25 @@
         <v>105.0466</v>
       </c>
       <c r="F36">
-        <v>7.698981</v>
+        <v>7.6989809999999999</v>
       </c>
       <c r="G36">
-        <v>0.8240347</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>C4H8O3</t>
-        </is>
+        <v>0.82403470000000001</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" t="s">
+        <v>42</v>
       </c>
       <c r="L36">
-        <v>0.03101921</v>
+        <v>3.1019209999999998E-2</v>
       </c>
       <c r="M36">
         <v>1.597828</v>
@@ -2477,7 +2391,7 @@
         <v>904408.4</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0</v>
       </c>
@@ -2491,33 +2405,25 @@
         <v>106.05</v>
       </c>
       <c r="F37">
-        <v>7.713923</v>
+        <v>7.7139230000000003</v>
       </c>
       <c r="G37">
-        <v>0.8365575</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>C4H8O3</t>
-        </is>
+        <v>0.83655749999999995</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" t="s">
+        <v>42</v>
       </c>
       <c r="L37">
-        <v>0.01607656</v>
+        <v>1.607656E-2</v>
       </c>
       <c r="M37">
         <v>1.366886</v>
@@ -2535,7 +2441,7 @@
         <v>11545.8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>0</v>
       </c>
@@ -2546,33 +2452,25 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>107.0533</v>
+        <v>107.05329999999999</v>
       </c>
       <c r="F38">
-        <v>7.627417</v>
+        <v>7.6274170000000003</v>
       </c>
       <c r="G38">
-        <v>0.8151067</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>C13-label-4</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>C4H8O3</t>
-        </is>
+        <v>0.81510669999999996</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" t="s">
+        <v>42</v>
       </c>
       <c r="L38">
         <v>0.1025829</v>
@@ -2593,7 +2491,7 @@
         <v>20669.87</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>0</v>
       </c>
@@ -2610,30 +2508,22 @@
         <v>12.77516</v>
       </c>
       <c r="G39">
-        <v>0.8591082</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>C5H10N2O3</t>
-        </is>
+        <v>0.85910819999999999</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" t="s">
+        <v>44</v>
       </c>
       <c r="L39">
-        <v>0.5248432</v>
+        <v>0.52484319999999995</v>
       </c>
       <c r="M39">
         <v>1.15707</v>
@@ -2651,7 +2541,7 @@
         <v>22451680</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -2668,30 +2558,22 @@
         <v>12.77516</v>
       </c>
       <c r="G40">
-        <v>0.8551992</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>C5H10N2O3</t>
-        </is>
+        <v>0.85519920000000005</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" t="s">
+        <v>44</v>
       </c>
       <c r="L40">
-        <v>0.5248432</v>
+        <v>0.52484319999999995</v>
       </c>
       <c r="M40">
         <v>1.044656</v>
@@ -2700,7 +2582,7 @@
         <v>145.0617</v>
       </c>
       <c r="O40">
-        <v>615646.3</v>
+        <v>615646.30000000005</v>
       </c>
       <c r="P40">
         <v>916656.3</v>
@@ -2709,7 +2591,7 @@
         <v>1358759</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -2728,46 +2610,38 @@
       <c r="G41">
         <v>0.8542708</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>C5H10N2O3</t>
-        </is>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
       </c>
       <c r="L41">
-        <v>0.5248432</v>
+        <v>0.52484319999999995</v>
       </c>
       <c r="M41">
-        <v>1.245035</v>
+        <v>1.2450349999999999</v>
       </c>
       <c r="N41">
         <v>145.0617</v>
       </c>
       <c r="O41">
-        <v>154639.3</v>
+        <v>154639.29999999999</v>
       </c>
       <c r="P41">
         <v>216897.3</v>
       </c>
       <c r="Q41">
-        <v>303778.4</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>303778.40000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>0</v>
       </c>
@@ -2784,33 +2658,25 @@
         <v>12.76737</v>
       </c>
       <c r="G42">
-        <v>0.829694</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>C5H10N2O3</t>
-        </is>
+        <v>0.82969400000000004</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" t="s">
+        <v>44</v>
       </c>
       <c r="L42">
-        <v>0.5326328</v>
+        <v>0.53263280000000002</v>
       </c>
       <c r="M42">
-        <v>0.8243988</v>
+        <v>0.82439879999999999</v>
       </c>
       <c r="N42">
         <v>145.0617</v>
@@ -2819,13 +2685,13 @@
         <v>10931.43</v>
       </c>
       <c r="P42">
-        <v>8407.460999999999</v>
+        <v>8407.4609999999993</v>
       </c>
       <c r="Q42">
         <v>15563.39</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>0</v>
       </c>
@@ -2836,39 +2702,31 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>149.075</v>
+        <v>149.07499999999999</v>
       </c>
       <c r="F43">
-        <v>12.62497</v>
+        <v>12.624969999999999</v>
       </c>
       <c r="G43">
         <v>0.1645267</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>C13-label-4</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>C5H10N2O3</t>
-        </is>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" t="s">
+        <v>44</v>
       </c>
       <c r="L43">
-        <v>0.6750326</v>
+        <v>0.67503259999999998</v>
       </c>
       <c r="M43">
-        <v>1.6377</v>
+        <v>1.6376999999999999</v>
       </c>
       <c r="N43">
         <v>145.0617</v>
@@ -2877,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>1996.724</v>
+        <v>1996.7239999999999</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0</v>
       </c>
@@ -2894,42 +2752,34 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>88.0403</v>
+        <v>88.040300000000002</v>
       </c>
       <c r="F44">
-        <v>12.46103</v>
+        <v>12.461029999999999</v>
       </c>
       <c r="G44">
-        <v>0.8241541999999999</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>C3H7NO2</t>
-        </is>
+        <v>0.82415419999999995</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" t="s">
+        <v>46</v>
       </c>
       <c r="L44">
-        <v>0.5289726</v>
+        <v>0.52897260000000002</v>
       </c>
       <c r="M44">
         <v>1.126552</v>
       </c>
       <c r="N44">
-        <v>88.0403</v>
+        <v>88.040300000000002</v>
       </c>
       <c r="O44">
         <v>877231.3</v>
@@ -2941,7 +2791,7 @@
         <v>2218707</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0</v>
       </c>
@@ -2952,42 +2802,34 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>89.04362</v>
+        <v>89.043620000000004</v>
       </c>
       <c r="F45">
-        <v>12.46103</v>
+        <v>12.461029999999999</v>
       </c>
       <c r="G45">
-        <v>0.851097</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>C3H7NO2</t>
-        </is>
+        <v>0.85109699999999999</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
       </c>
       <c r="L45">
-        <v>0.5289726</v>
+        <v>0.52897260000000002</v>
       </c>
       <c r="M45">
-        <v>1.456584</v>
+        <v>1.4565840000000001</v>
       </c>
       <c r="N45">
-        <v>88.0403</v>
+        <v>88.040300000000002</v>
       </c>
       <c r="O45">
         <v>20980.22</v>
@@ -2996,10 +2838,10 @@
         <v>24759.42</v>
       </c>
       <c r="Q45">
-        <v>71946.74000000001</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>71946.740000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>0</v>
       </c>
@@ -3010,54 +2852,46 @@
         <v>3</v>
       </c>
       <c r="E46">
-        <v>90.04702</v>
+        <v>90.047020000000003</v>
       </c>
       <c r="F46">
         <v>12.50569</v>
       </c>
       <c r="G46">
-        <v>0.1517112</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>C3H7NO2</t>
-        </is>
+        <v>0.15171119999999999</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
       </c>
       <c r="L46">
         <v>0.4843073</v>
       </c>
       <c r="M46">
-        <v>1.01672</v>
+        <v>1.0167200000000001</v>
       </c>
       <c r="N46">
-        <v>88.0403</v>
+        <v>88.040300000000002</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>719.6994999999999</v>
+        <v>719.69949999999994</v>
       </c>
       <c r="Q46">
-        <v>2144.124</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2144.1239999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>0</v>
       </c>
@@ -3071,36 +2905,28 @@
         <v>191.0196</v>
       </c>
       <c r="F47">
-        <v>13.73266</v>
+        <v>13.732659999999999</v>
       </c>
       <c r="G47">
-        <v>0.7826849</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>C6H8O7</t>
-        </is>
+        <v>0.78268490000000002</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" t="s">
+        <v>48</v>
       </c>
       <c r="L47">
-        <v>0.2473392</v>
+        <v>0.24733920000000001</v>
       </c>
       <c r="M47">
-        <v>0.8786877</v>
+        <v>0.87868769999999996</v>
       </c>
       <c r="N47">
         <v>191.0196</v>
@@ -3115,7 +2941,7 @@
         <v>1263202</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>0</v>
       </c>
@@ -3126,39 +2952,31 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>192.0229</v>
+        <v>192.02289999999999</v>
       </c>
       <c r="F48">
-        <v>13.7429</v>
+        <v>13.742900000000001</v>
       </c>
       <c r="G48">
-        <v>0.844701</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>C6H8O7</t>
-        </is>
+        <v>0.84470100000000004</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" t="s">
+        <v>48</v>
       </c>
       <c r="L48">
         <v>0.2370987</v>
       </c>
       <c r="M48">
-        <v>0.8740963</v>
+        <v>0.87409630000000005</v>
       </c>
       <c r="N48">
         <v>191.0196</v>
@@ -3167,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>25163.12</v>
+        <v>25163.119999999999</v>
       </c>
       <c r="Q48">
         <v>92758.47</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0</v>
       </c>
@@ -3184,36 +3002,28 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>193.0262</v>
+        <v>193.02619999999999</v>
       </c>
       <c r="F49">
-        <v>13.69443</v>
+        <v>13.694430000000001</v>
       </c>
       <c r="G49">
-        <v>0.8389618</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>C6H8O7</t>
-        </is>
+        <v>0.83896179999999998</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" t="s">
+        <v>48</v>
       </c>
       <c r="L49">
-        <v>0.285574</v>
+        <v>0.28557399999999999</v>
       </c>
       <c r="M49">
         <v>1.264804</v>
@@ -3225,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>9085.108</v>
+        <v>9085.1080000000002</v>
       </c>
       <c r="Q49">
         <v>28492.59</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0</v>
       </c>
@@ -3242,36 +3052,28 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>194.0295</v>
+        <v>194.02950000000001</v>
       </c>
       <c r="F50">
-        <v>13.65505</v>
+        <v>13.655049999999999</v>
       </c>
       <c r="G50">
-        <v>0.08092311000000001</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>C6H8O7</t>
-        </is>
+        <v>8.0923110000000006E-2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" t="s">
+        <v>48</v>
       </c>
       <c r="L50">
-        <v>0.3249483</v>
+        <v>0.32494830000000002</v>
       </c>
       <c r="M50">
         <v>1.258264</v>
@@ -3289,7 +3091,7 @@
         <v>847.8152</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>0</v>
       </c>
@@ -3303,36 +3105,28 @@
         <v>117.0193</v>
       </c>
       <c r="F51">
-        <v>12.35724</v>
+        <v>12.357239999999999</v>
       </c>
       <c r="G51">
-        <v>0.8192176</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>C4H6O4</t>
-        </is>
+        <v>0.81921759999999999</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" t="s">
+        <v>50</v>
       </c>
       <c r="L51">
-        <v>0.7272434</v>
+        <v>0.72724339999999998</v>
       </c>
       <c r="M51">
-        <v>0.5215818</v>
+        <v>0.52158179999999998</v>
       </c>
       <c r="N51">
         <v>117.0193</v>
@@ -3341,13 +3135,13 @@
         <v>1095586</v>
       </c>
       <c r="P51">
-        <v>584461.8</v>
+        <v>584461.80000000005</v>
       </c>
       <c r="Q51">
         <v>3390881</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>0</v>
       </c>
@@ -3361,36 +3155,28 @@
         <v>118.0226</v>
       </c>
       <c r="F52">
-        <v>12.35724</v>
+        <v>12.357239999999999</v>
       </c>
       <c r="G52">
-        <v>0.8512601</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>C4H6O4</t>
-        </is>
+        <v>0.85126009999999996</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" t="s">
+        <v>50</v>
       </c>
       <c r="L52">
-        <v>0.7272434</v>
+        <v>0.72724339999999998</v>
       </c>
       <c r="M52">
-        <v>0.7757215</v>
+        <v>0.77572149999999995</v>
       </c>
       <c r="N52">
         <v>117.0193</v>
@@ -3405,7 +3191,7 @@
         <v>190351</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>0</v>
       </c>
@@ -3419,36 +3205,28 @@
         <v>119.0262</v>
       </c>
       <c r="F53">
-        <v>12.45625</v>
+        <v>12.456250000000001</v>
       </c>
       <c r="G53">
-        <v>0.8506542</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>C4H6O4</t>
-        </is>
+        <v>0.85065420000000003</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" t="s">
+        <v>50</v>
       </c>
       <c r="L53">
-        <v>0.8262453</v>
+        <v>0.82624529999999996</v>
       </c>
       <c r="M53">
-        <v>0.9614780000000001</v>
+        <v>0.96147800000000005</v>
       </c>
       <c r="N53">
         <v>117.0193</v>
@@ -3463,7 +3241,7 @@
         <v>35146.29</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>0</v>
       </c>
@@ -3482,31 +3260,23 @@
       <c r="G54">
         <v>0.5625694</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>C4H6O4</t>
-        </is>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" t="s">
+        <v>50</v>
       </c>
       <c r="L54">
         <v>0.8362503</v>
       </c>
       <c r="M54">
-        <v>1.716193</v>
+        <v>1.7161930000000001</v>
       </c>
       <c r="N54">
         <v>117.0193</v>
@@ -3527,64 +3297,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Compound</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C_Label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz969</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz970</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz979</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>963802497.317324</v>
+        <v>963802497.31732404</v>
       </c>
       <c r="D2">
-        <v>1381911570.01444</v>
+        <v>1381911570.0144401</v>
       </c>
       <c r="E2">
-        <v>1548624357.3105</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>1548624357.3104999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3596,14 +3357,12 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>942387.403274423</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>942387.40327442298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3618,11 +3377,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -3637,11 +3394,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -3653,14 +3408,12 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>405071.995986288</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>405071.99598628801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -3675,11 +3428,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -3694,11 +3445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -3713,11 +3462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -3732,11 +3479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -3748,14 +3493,12 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>117436.642927713</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>117436.64292771299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -3770,11 +3513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -3789,55 +3530,49 @@
         <v>218380.675882312</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>89531.62453870771</v>
+        <v>89531.624538707707</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>504171.811503446</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>504171.81150344602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>193424.232643768</v>
+        <v>193424.23264376799</v>
       </c>
       <c r="D15">
-        <v>401095.261730774</v>
+        <v>401095.26173077401</v>
       </c>
       <c r="E15">
-        <v>304379.440909968</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>304379.44090996799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>777825.822200985</v>
+        <v>777825.82220098504</v>
       </c>
       <c r="D16">
         <v>1142648.50091085</v>
@@ -3846,68 +3581,60 @@
         <v>1993797.29347301</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2470458.83305593</v>
+        <v>2470458.8330559302</v>
       </c>
       <c r="D17">
-        <v>6204641.92502113</v>
+        <v>6204641.9250211297</v>
       </c>
       <c r="E17">
         <v>10445932.5863072</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>94845095.91599479</v>
+        <v>94845095.915994793</v>
       </c>
       <c r="D18">
-        <v>181191178.697518</v>
+        <v>181191178.69751799</v>
       </c>
       <c r="E18">
         <v>298857435.978697</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1227029462.54525</v>
+        <v>1227029462.5452499</v>
       </c>
       <c r="D19">
         <v>1916861372.98384</v>
       </c>
       <c r="E19">
-        <v>2232390001.6642</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+        <v>2232390001.6641998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3916,17 +3643,15 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3321113.09814725</v>
+        <v>3321113.0981472498</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3941,11 +3666,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -3960,11 +3683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3979,11 +3700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3998,11 +3717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -4017,11 +3734,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -4036,11 +3751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -4055,11 +3768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -4074,11 +3785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -4093,11 +3802,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -4112,11 +3819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -4131,11 +3836,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -4150,11 +3853,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -4169,11 +3870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -4188,11 +3887,9 @@
         <v>320158.236535687</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -4201,17 +3898,15 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>139701.382045594</v>
+        <v>139701.38204559399</v>
       </c>
       <c r="E35">
-        <v>2871098.00556694</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+        <v>2871098.0055669402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -4226,11 +3921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>31</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -4239,17 +3932,15 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>290852.330500156</v>
+        <v>290852.33050015598</v>
       </c>
       <c r="E37">
-        <v>567599.947829937</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+        <v>567599.94782993698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4258,17 +3949,15 @@
         <v>1582939397.52929</v>
       </c>
       <c r="D38">
-        <v>2328747213.23954</v>
+        <v>2328747213.2395401</v>
       </c>
       <c r="E38">
         <v>1600871765.03811</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>34</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4283,11 +3972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>34</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -4302,11 +3989,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -4321,11 +4006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>34</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4340,11 +4023,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>34</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -4359,11 +4040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -4378,11 +4057,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>34</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -4397,11 +4074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>34</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -4416,11 +4091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>34</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -4435,11 +4108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>34</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -4454,11 +4125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>34</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -4473,11 +4142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>34</v>
       </c>
       <c r="B50">
         <v>12</v>
@@ -4492,11 +4159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
       </c>
       <c r="B51">
         <v>13</v>
@@ -4511,11 +4176,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>34</v>
       </c>
       <c r="B52">
         <v>14</v>
@@ -4530,11 +4193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>34</v>
       </c>
       <c r="B53">
         <v>15</v>
@@ -4549,11 +4210,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>34</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -4568,11 +4227,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>34</v>
       </c>
       <c r="B55">
         <v>17</v>
@@ -4587,11 +4244,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>34</v>
       </c>
       <c r="B56">
         <v>18</v>
@@ -4606,49 +4261,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>28762452.2766661</v>
+        <v>28762452.276666101</v>
       </c>
       <c r="D57">
-        <v>30168536.1625673</v>
+        <v>30168536.162567299</v>
       </c>
       <c r="E57">
-        <v>81233957.3641248</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>81233957.364124805</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>744549.462500605</v>
+        <v>744549.46250060503</v>
       </c>
       <c r="D58">
-        <v>840366.957955091</v>
+        <v>840366.95795509103</v>
       </c>
       <c r="E58">
         <v>1551844.21759691</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>36</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -4657,36 +4306,32 @@
         <v>146446.426821339</v>
       </c>
       <c r="D59">
-        <v>109446.00068525</v>
+        <v>109446.00068524999</v>
       </c>
       <c r="E59">
-        <v>152655.750790342</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>152655.75079034199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>36</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>765.13939730488</v>
+        <v>765.13939730488005</v>
       </c>
       <c r="D60">
-        <v>6794.69984135168</v>
+        <v>6794.6998413516803</v>
       </c>
       <c r="E60">
-        <v>6628.5814037774</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>6628.5814037773998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>36</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -4701,11 +4346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>36</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -4720,11 +4363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>36</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -4739,74 +4380,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>39</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>66232059.0256377</v>
+        <v>66232059.025637701</v>
       </c>
       <c r="D64">
-        <v>40655420.7484088</v>
+        <v>40655420.748408802</v>
       </c>
       <c r="E64">
-        <v>66757340.7787877</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>66757340.778787702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>39</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>626026.107096507</v>
+        <v>626026.10709650698</v>
       </c>
       <c r="D65">
-        <v>607064.713851697</v>
+        <v>607064.71385169704</v>
       </c>
       <c r="E65">
-        <v>773572.630555969</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>773572.63055596896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
-        <v>68309.54052407861</v>
+        <v>68309.540524078606</v>
       </c>
       <c r="D66">
-        <v>84325.6318935273</v>
+        <v>84325.631893527301</v>
       </c>
       <c r="E66">
         <v>66006.0394577072</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>39</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>31974.603160463</v>
+        <v>31974.603160463001</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4815,11 +4448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>41</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4831,14 +4462,12 @@
         <v>31214572.9642094</v>
       </c>
       <c r="E68">
-        <v>20791217.8481224</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+        <v>20791217.848122399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>41</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4850,14 +4479,12 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>18976.5249318482</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+        <v>18976.524931848198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>41</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -4869,14 +4496,12 @@
         <v>1520117.65296707</v>
       </c>
       <c r="E70">
-        <v>933515.98786634</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+        <v>933515.98786633997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>41</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4891,11 +4516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>41</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -4904,36 +4527,32 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>35801.4485507907</v>
+        <v>35801.448550790701</v>
       </c>
       <c r="E72">
-        <v>21149.4155992824</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>21149.415599282402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>43</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>9121244.33797895</v>
+        <v>9121244.3379789498</v>
       </c>
       <c r="D73">
-        <v>15153237.7755981</v>
+        <v>15153237.775598099</v>
       </c>
       <c r="E73">
-        <v>24067062.6191941</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>24067062.619194102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>43</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4942,17 +4561,15 @@
         <v>153145.961591536</v>
       </c>
       <c r="D74">
-        <v>141553.080713226</v>
+        <v>141553.08071322599</v>
       </c>
       <c r="E74">
         <v>121623.065132288</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>43</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4961,36 +4578,32 @@
         <v>147198.676826276</v>
       </c>
       <c r="D75">
-        <v>207032.612099779</v>
+        <v>207032.61209977901</v>
       </c>
       <c r="E75">
-        <v>289742.483590546</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>289742.48359054601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>43</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>6497.09326238128</v>
+        <v>6497.0932623812796</v>
       </c>
       <c r="D76">
-        <v>1641.37959764813</v>
+        <v>1641.3795976481299</v>
       </c>
       <c r="E76">
-        <v>6479.0208477687</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>6479.0208477687002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>43</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4999,17 +4612,15 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2012.62470307868</v>
+        <v>2012.6247030786801</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>43</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -5024,30 +4635,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>45</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>914232.2110040759</v>
+        <v>914232.21100407594</v>
       </c>
       <c r="D79">
-        <v>959944.187356404</v>
+        <v>959944.18735640403</v>
       </c>
       <c r="E79">
-        <v>2312927.55659014</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+        <v>2312927.5565901399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>45</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -5062,11 +4669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>45</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -5075,17 +4680,15 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>306.033218231817</v>
+        <v>306.03321823181699</v>
       </c>
       <c r="E81">
         <v>1419.17633705464</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>45</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -5100,30 +4703,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>47</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>197924.491393772</v>
+        <v>197924.49139377201</v>
       </c>
       <c r="D83">
-        <v>403176.228845078</v>
+        <v>403176.22884507797</v>
       </c>
       <c r="E83">
         <v>1371753.44653633</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>47</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5135,14 +4734,12 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>7492.41893559327</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+        <v>7492.4189355932704</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>47</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -5151,17 +4748,15 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>9043.33622522364</v>
+        <v>9043.3362252236402</v>
       </c>
       <c r="E85">
-        <v>27778.9642520662</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+        <v>27778.964252066198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>47</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -5176,11 +4771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>47</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5195,11 +4788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>47</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -5214,11 +4805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>47</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -5233,30 +4822,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>49</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1155676.84639556</v>
+        <v>1155676.8463955601</v>
       </c>
       <c r="D90">
-        <v>616278.6750875179</v>
+        <v>616278.67508751794</v>
       </c>
       <c r="E90">
         <v>3576661.28508589</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>49</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5268,14 +4853,12 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>39911.2220901004</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+        <v>39911.222090100397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>49</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5287,14 +4870,12 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>32903.5673221536</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+        <v>32903.567322153598</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>49</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -5306,14 +4887,12 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>9.92598985540611</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+        <v>9.9259898554061099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>49</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5334,64 +4913,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Compound</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C_Label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz969</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz970</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz979</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.907382511020756</v>
+        <v>0.90738251102075596</v>
       </c>
       <c r="D2">
-        <v>0.879721534238574</v>
+        <v>0.87972153423857402</v>
       </c>
       <c r="E2">
-        <v>0.83151484946294</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>0.83151484946293996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5403,14 +4973,12 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.000506003354571021</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>5.0600335457102097E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5425,11 +4993,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5444,11 +5010,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5460,14 +5024,12 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000217498438645995</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>2.1749843864599501E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5482,11 +5044,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -5501,11 +5061,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -5520,11 +5078,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -5539,11 +5095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -5555,14 +5109,12 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.30561646563924e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>6.3056164656392403E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -5577,11 +5129,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -5593,109 +5143,97 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.00011725682472621</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>1.1725682472621E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.4290537237478e-05</v>
+        <v>8.4290537237477996E-5</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.000270708868788438</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>2.7070886878843798E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.000182101381140933</v>
+        <v>1.8210138114093299E-4</v>
       </c>
       <c r="D15">
-        <v>0.000255336265128696</v>
+        <v>2.5533626512869601E-4</v>
       </c>
       <c r="E15">
-        <v>0.00016343280653768</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>1.6343280653767999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.000732292715208788</v>
+        <v>7.3229271520878797E-4</v>
       </c>
       <c r="D16">
-        <v>0.000727407248139759</v>
+        <v>7.2740724813975897E-4</v>
       </c>
       <c r="E16">
-        <v>0.00107054499596084</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>1.0705449959608399E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.00232584076670394</v>
+        <v>2.3258407667039399E-3</v>
       </c>
       <c r="D17">
-        <v>0.00394985991297804</v>
+        <v>3.9498599129780404E-3</v>
       </c>
       <c r="E17">
-        <v>0.00560881534698846</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+        <v>5.6088153469884602E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.0892929635789531</v>
+        <v>8.9292963578953097E-2</v>
       </c>
       <c r="D18">
         <v>0.115345862335179</v>
       </c>
       <c r="E18">
-        <v>0.160467833736185</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+        <v>0.16046783373618501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5704,17 +5242,15 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.998046630563805</v>
+        <v>0.99804663056380505</v>
       </c>
       <c r="E19">
-        <v>0.998319049209658</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+        <v>0.99831904920965797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5723,17 +5259,15 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.00172919428814382</v>
+        <v>1.7291942881438201E-3</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -5748,11 +5282,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -5767,11 +5299,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -5786,11 +5316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -5805,11 +5333,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -5824,11 +5350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -5843,11 +5367,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -5862,11 +5384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -5881,11 +5401,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -5900,11 +5418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>11</v>
@@ -5919,11 +5435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>12</v>
@@ -5938,11 +5452,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -5957,11 +5469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -5976,11 +5486,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -5992,14 +5500,12 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.000143173937375046</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+        <v>1.4317393737504601E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -6008,17 +5514,15 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>7.27379118807499e-05</v>
+        <v>7.2737911880749897E-5</v>
       </c>
       <c r="E35">
-        <v>0.00128394762069737</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+        <v>1.2839476206973699E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -6033,11 +5537,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>31</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -6046,17 +5548,15 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.000151437236170838</v>
+        <v>1.5143723617083799E-4</v>
       </c>
       <c r="E37">
-        <v>0.000253829232269726</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+        <v>2.5382923226972598E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6071,11 +5571,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>34</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -6090,11 +5588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>34</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -6109,11 +5605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -6128,11 +5622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>34</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -6147,11 +5639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>34</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -6166,11 +5656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -6185,11 +5673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>34</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -6204,11 +5690,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>34</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -6223,11 +5707,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>34</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -6242,11 +5724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>34</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -6261,11 +5741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>34</v>
       </c>
       <c r="B49">
         <v>11</v>
@@ -6280,11 +5758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>34</v>
       </c>
       <c r="B50">
         <v>12</v>
@@ -6299,11 +5775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>34</v>
       </c>
       <c r="B51">
         <v>13</v>
@@ -6318,11 +5792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>34</v>
       </c>
       <c r="B52">
         <v>14</v>
@@ -6337,11 +5809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>34</v>
       </c>
       <c r="B53">
         <v>15</v>
@@ -6356,11 +5826,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>34</v>
       </c>
       <c r="B54">
         <v>16</v>
@@ -6375,11 +5843,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>34</v>
       </c>
       <c r="B55">
         <v>17</v>
@@ -6394,11 +5860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>34</v>
       </c>
       <c r="B56">
         <v>18</v>
@@ -6413,87 +5877,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.969842220928941</v>
+        <v>0.96984222092894101</v>
       </c>
       <c r="D57">
-        <v>0.969265759413623</v>
+        <v>0.96926575941362303</v>
       </c>
       <c r="E57">
-        <v>0.979370344476261</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>0.97937034447626103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0.0251054916095887</v>
+        <v>2.51054916095887E-2</v>
       </c>
       <c r="D58">
-        <v>0.0269996168623895</v>
+        <v>2.6999616862389501E-2</v>
       </c>
       <c r="E58">
-        <v>0.0187092966448607</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>1.87092966448607E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>36</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>0.00493803262911414</v>
+        <v>4.9380326291141403E-3</v>
       </c>
       <c r="D59">
-        <v>0.00351632112334965</v>
+        <v>3.5163211233496501E-3</v>
       </c>
       <c r="E59">
-        <v>0.00184044357912626</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>1.84044357912626E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>36</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>2.5799764403413e-05</v>
+        <v>2.5799764403412998E-5</v>
       </c>
       <c r="D60">
-        <v>0.000218302600637515</v>
+        <v>2.1830260063751501E-4</v>
       </c>
       <c r="E60">
-        <v>7.99152997521377e-05</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>7.9915299752137699E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>36</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -6508,11 +5962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>36</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -6527,17 +5979,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>36</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>8.845506795277421e-05</v>
+        <v>8.8455067952774205E-5</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -6546,74 +5996,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>39</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.989152808549105</v>
+        <v>0.98915280854910503</v>
       </c>
       <c r="D64">
-        <v>0.983278266752645</v>
+        <v>0.98327826675264496</v>
       </c>
       <c r="E64">
-        <v>0.9875796311894131</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>0.98757963118941305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>39</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>0.009349482579423861</v>
+        <v>9.3494825794238606E-3</v>
       </c>
       <c r="D65">
-        <v>0.0146822620121611</v>
+        <v>1.46822620121611E-2</v>
       </c>
       <c r="E65">
-        <v>0.0114439036107538</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>1.14439036107538E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
-        <v>0.0010201792735137</v>
+        <v>1.0201792735136999E-3</v>
       </c>
       <c r="D66">
-        <v>0.002039471235194</v>
+        <v>2.0394712351939999E-3</v>
       </c>
       <c r="E66">
-        <v>0.000976465199833563</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>9.7646519983356304E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>39</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.000477529597957574</v>
+        <v>4.77529597957574E-4</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6622,30 +6064,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>41</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.952534442717051</v>
+        <v>0.95253444271705101</v>
       </c>
       <c r="D68">
-        <v>0.9525207281478359</v>
+        <v>0.95252072814783595</v>
       </c>
       <c r="E68">
-        <v>0.955265416897018</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+        <v>0.95526541689701805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>41</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -6657,33 +6095,29 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.000871888223801943</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+        <v>8.7188822380194304E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>41</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70">
-        <v>0.0474655572829489</v>
+        <v>4.7465557282948899E-2</v>
       </c>
       <c r="D70">
-        <v>0.0463867814349017</v>
+        <v>4.63867814349017E-2</v>
       </c>
       <c r="E70">
-        <v>0.0428909718441387</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+        <v>4.2890971844138703E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>41</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -6698,11 +6132,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>41</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -6711,93 +6143,83 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.00109249041726271</v>
+        <v>1.0924904172627101E-3</v>
       </c>
       <c r="E72">
-        <v>0.000971723035041034</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>9.7172303504103395E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>43</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.967454504613863</v>
+        <v>0.96745450461386295</v>
       </c>
       <c r="D73">
-        <v>0.977282886145645</v>
+        <v>0.97728288614564496</v>
       </c>
       <c r="E73">
-        <v>0.982934606762065</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>0.98293460676206501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>43</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0.0162435896808771</v>
+        <v>1.62435896808771E-2</v>
       </c>
       <c r="D74">
-        <v>0.00912923068395321</v>
+        <v>9.1292306839532104E-3</v>
       </c>
       <c r="E74">
-        <v>0.00496726674088013</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>4.9672667408801304E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>43</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75">
-        <v>0.0156127845820141</v>
+        <v>1.5612784582014099E-2</v>
       </c>
       <c r="D75">
-        <v>0.0133522242358636</v>
+        <v>1.3352224235863601E-2</v>
       </c>
       <c r="E75">
-        <v>0.0118335136562616</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>1.1833513656261599E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>43</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>0.000689121123245767</v>
+        <v>6.89121123245767E-4</v>
       </c>
       <c r="D76">
-        <v>0.000105858049230461</v>
+        <v>1.05858049230461E-4</v>
       </c>
       <c r="E76">
-        <v>0.000264612840792866</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>2.64612840792866E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>43</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -6806,17 +6228,15 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.000129800885307835</v>
+        <v>1.29800885307835E-4</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>43</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -6831,11 +6251,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>45</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -6844,17 +6262,15 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.999681298466093</v>
+        <v>0.99968129846609299</v>
       </c>
       <c r="E79">
-        <v>0.999386791824724</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+        <v>0.99938679182472401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>45</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -6869,11 +6285,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>45</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -6882,17 +6296,15 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.000318701533907151</v>
+        <v>3.1870153390715098E-4</v>
       </c>
       <c r="E81">
-        <v>0.000613208175276167</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+        <v>6.1320817527616702E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>45</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -6907,11 +6319,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>47</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -6920,17 +6330,15 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0.9780618461821881</v>
+        <v>0.97806184618218805</v>
       </c>
       <c r="E83">
-        <v>0.974931939762159</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+        <v>0.97493193976215897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>47</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6942,14 +6350,12 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.00532500832772301</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+        <v>5.3250083277230102E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>47</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -6958,17 +6364,15 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.0219381538178115</v>
+        <v>2.1938153817811501E-2</v>
       </c>
       <c r="E85">
-        <v>0.0197430519101184</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+        <v>1.9743051910118398E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>47</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -6983,11 +6387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>47</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -7002,11 +6404,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>47</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -7021,11 +6421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>47</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -7040,11 +6438,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>49</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -7056,14 +6452,12 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0.980045213108813</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+        <v>0.98004521310881298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>49</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -7075,14 +6469,12 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0.0109361214386803</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+        <v>1.09361214386803E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>49</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -7094,14 +6486,12 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.009015945620219901</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+        <v>9.0159456202199006E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>49</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -7113,14 +6503,12 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>2.71983228708888e-06</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+        <v>2.7198322870888801E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>49</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -7141,136 +6529,118 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Compound</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz969</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz970</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz979</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C16:0</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1062178833.74576</v>
       </c>
       <c r="C2">
-        <v>1570851134.39962</v>
+        <v>1570851134.3996201</v>
       </c>
       <c r="D2">
-        <v>1862413351.13946</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C18:1</t>
-        </is>
+        <v>1862413351.1394601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>1227029462.54525</v>
+        <v>1227029462.5452499</v>
       </c>
       <c r="C3">
-        <v>1920613039.79454</v>
+        <v>1920613039.7945399</v>
       </c>
       <c r="D3">
-        <v>2236148857.85413</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C18:2</t>
-        </is>
+        <v>2236148857.8541298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
       </c>
       <c r="B4">
         <v>1582939397.52929</v>
       </c>
       <c r="C4">
-        <v>2328747213.23954</v>
+        <v>2328747213.2395401</v>
       </c>
       <c r="D4">
         <v>1600871765.03811</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
       </c>
       <c r="B5">
         <v>29656836.6028823</v>
       </c>
       <c r="C5">
-        <v>31125143.821049</v>
+        <v>31125143.821049001</v>
       </c>
       <c r="D5">
-        <v>82945085.9139158</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>82945085.913915798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>66958369.2764187</v>
+        <v>66958369.276418701</v>
       </c>
       <c r="C6">
         <v>41346811.094154</v>
       </c>
       <c r="D6">
-        <v>67596919.4488014</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyrate</t>
-        </is>
+        <v>67596919.448801398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>25859673.4959416</v>
+        <v>25859673.495941602</v>
       </c>
       <c r="C7">
         <v>32770492.0657272</v>
       </c>
       <c r="D7">
-        <v>21764859.7765199</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
+        <v>21764859.776519898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
       </c>
       <c r="B8">
         <v>9428086.06965914</v>
@@ -7279,52 +6649,46 @@
         <v>15505477.4727118</v>
       </c>
       <c r="D8">
-        <v>24484907.1887647</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
+        <v>24484907.188764699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>914232.2110040759</v>
+        <v>914232.21100407594</v>
       </c>
       <c r="C9">
-        <v>960250.220574636</v>
+        <v>960250.22057463601</v>
       </c>
       <c r="D9">
-        <v>2314346.7329272</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>citrate/isocitrate</t>
-        </is>
+        <v>2314346.7329271999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>197924.491393772</v>
+        <v>197924.49139377201</v>
       </c>
       <c r="C10">
         <v>412219.565070301</v>
       </c>
       <c r="D10">
-        <v>1407024.82972399</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>succinate</t>
-        </is>
+        <v>1407024.8297239901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>1155676.84639556</v>
+        <v>1155676.8463955601</v>
       </c>
       <c r="C11">
-        <v>616278.6750875179</v>
+        <v>616278.67508751794</v>
       </c>
       <c r="D11">
         <v>3649486.000488</v>
